--- a/team_specific_matrix/Xavier_B.xlsx
+++ b/team_specific_matrix/Xavier_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1944444444444444</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="C2">
-        <v>0.5694444444444444</v>
+        <v>0.5451713395638629</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009259259259259259</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1435185185185185</v>
+        <v>0.1557632398753894</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08333333333333333</v>
+        <v>0.07476635514018691</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007633587786259542</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C3">
-        <v>0.06106870229007633</v>
+        <v>0.04891304347826087</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01526717557251908</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7099236641221374</v>
+        <v>0.7336956521739131</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2061068702290076</v>
+        <v>0.1793478260869565</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09677419354838709</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6451612903225806</v>
+        <v>0.65</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08021390374331551</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0106951871657754</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.106951871657754</v>
+        <v>0.102880658436214</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.267379679144385</v>
+        <v>0.2510288065843622</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0106951871657754</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1176470588235294</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="R6">
-        <v>0.08021390374331551</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="S6">
-        <v>0.3262032085561498</v>
+        <v>0.3539094650205761</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09937888198757763</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0124223602484472</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E7">
-        <v>0.006211180124223602</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="F7">
-        <v>0.07453416149068323</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1180124223602484</v>
+        <v>0.1237623762376238</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01863354037267081</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2422360248447205</v>
+        <v>0.2128712871287129</v>
       </c>
       <c r="R7">
-        <v>0.05590062111801242</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="S7">
-        <v>0.3726708074534161</v>
+        <v>0.3960396039603961</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1126373626373626</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008241758241758242</v>
+        <v>0.008213552361396304</v>
       </c>
       <c r="E8">
-        <v>0.002747252747252747</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="F8">
-        <v>0.06318681318681318</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1071428571428571</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01373626373626374</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1510989010989011</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="R8">
-        <v>0.09065934065934066</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="S8">
-        <v>0.4505494505494506</v>
+        <v>0.431211498973306</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0625</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01388888888888889</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04861111111111111</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1319444444444444</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1944444444444444</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="R9">
-        <v>0.06944444444444445</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="S9">
-        <v>0.4652777777777778</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09165808444902163</v>
+        <v>0.1029082774049217</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02368692070030896</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06385169927909372</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1174047373841401</v>
+        <v>0.1193139448173005</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01956745623069001</v>
+        <v>0.0238627889634601</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2358393408856849</v>
+        <v>0.2356450410141685</v>
       </c>
       <c r="R10">
-        <v>0.1029866117404737</v>
+        <v>0.08873974645786727</v>
       </c>
       <c r="S10">
-        <v>0.345005149330587</v>
+        <v>0.3422818791946309</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1212121212121212</v>
+        <v>0.121405750798722</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1038961038961039</v>
+        <v>0.1086261980830671</v>
       </c>
       <c r="K11">
-        <v>0.1601731601731602</v>
+        <v>0.1725239616613418</v>
       </c>
       <c r="L11">
-        <v>0.5974025974025974</v>
+        <v>0.5846645367412141</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01731601731601732</v>
+        <v>0.01277955271565495</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7943262411347518</v>
+        <v>0.7393617021276596</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1276595744680851</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="K12">
-        <v>0.007092198581560284</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="L12">
-        <v>0.03546099290780142</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03546099290780142</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7941176470588235</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08823529411764706</v>
+        <v>0.075</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1176470588235294</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03763440860215054</v>
+        <v>0.03137254901960784</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.08064516129032258</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="I15">
-        <v>0.06451612903225806</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.4193548387096774</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="K15">
-        <v>0.07526881720430108</v>
+        <v>0.06274509803921569</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005376344086021506</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1021505376344086</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2150537634408602</v>
+        <v>0.2549019607843137</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2553191489361702</v>
+        <v>0.2270531400966184</v>
       </c>
       <c r="I16">
-        <v>0.0851063829787234</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="J16">
-        <v>0.3971631205673759</v>
+        <v>0.3961352657004831</v>
       </c>
       <c r="K16">
-        <v>0.04964539007092199</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06382978723404255</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1063829787234043</v>
+        <v>0.1159420289855072</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01891891891891892</v>
+        <v>0.01405622489959839</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1756756756756757</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="I17">
-        <v>0.07027027027027027</v>
+        <v>0.07028112449799197</v>
       </c>
       <c r="J17">
-        <v>0.4108108108108108</v>
+        <v>0.4257028112449799</v>
       </c>
       <c r="K17">
-        <v>0.1135135135135135</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02162162162162162</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="N17">
-        <v>0.002702702702702703</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="O17">
-        <v>0.07567567567567568</v>
+        <v>0.07429718875502007</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1108108108108108</v>
+        <v>0.1044176706827309</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03592814371257485</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1796407185628743</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="I18">
-        <v>0.08982035928143713</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="J18">
-        <v>0.3652694610778443</v>
+        <v>0.3718592964824121</v>
       </c>
       <c r="K18">
-        <v>0.07784431137724551</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02395209580838323</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05389221556886228</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1736526946107785</v>
+        <v>0.1557788944723618</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01780415430267062</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2156280909990109</v>
+        <v>0.2132736763609247</v>
       </c>
       <c r="I19">
-        <v>0.08011869436201781</v>
+        <v>0.07531692766592095</v>
       </c>
       <c r="J19">
-        <v>0.3382789317507419</v>
+        <v>0.3549589858314691</v>
       </c>
       <c r="K19">
-        <v>0.1088031651829871</v>
+        <v>0.1118568232662192</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01978239366963402</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="N19">
-        <v>0.001978239366963402</v>
+        <v>0.001491424310216256</v>
       </c>
       <c r="O19">
-        <v>0.07220573689416419</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1454005934718101</v>
+        <v>0.1379567486950037</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Xavier_B.xlsx
+++ b/team_specific_matrix/Xavier_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.205607476635514</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="C2">
-        <v>0.5451713395638629</v>
+        <v>0.5467836257309941</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01869158878504673</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1557632398753894</v>
+        <v>0.152046783625731</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07476635514018691</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C3">
-        <v>0.04891304347826087</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01630434782608696</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7336956521739131</v>
+        <v>0.7295918367346939</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1793478260869565</v>
+        <v>0.1887755102040816</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06995884773662552</v>
+        <v>0.07751937984496124</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00823045267489712</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.102880658436214</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2510288065843622</v>
+        <v>0.251937984496124</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0205761316872428</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1234567901234568</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="R6">
-        <v>0.06995884773662552</v>
+        <v>0.06589147286821706</v>
       </c>
       <c r="S6">
-        <v>0.3539094650205761</v>
+        <v>0.3372093023255814</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1138613861386139</v>
+        <v>0.1084905660377359</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01485148514851485</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="E7">
-        <v>0.004950495049504951</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="F7">
-        <v>0.06930693069306931</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1237623762376238</v>
+        <v>0.1273584905660377</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0198019801980198</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2128712871287129</v>
+        <v>0.2122641509433962</v>
       </c>
       <c r="R7">
-        <v>0.04455445544554455</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="S7">
-        <v>0.3960396039603961</v>
+        <v>0.4009433962264151</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1170431211498973</v>
+        <v>0.1113207547169811</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008213552361396304</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E8">
-        <v>0.002053388090349076</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="F8">
-        <v>0.06776180698151951</v>
+        <v>0.06792452830188679</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1211498973305955</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01642710472279261</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1540041067761807</v>
+        <v>0.1547169811320755</v>
       </c>
       <c r="R8">
-        <v>0.08213552361396304</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="S8">
-        <v>0.431211498973306</v>
+        <v>0.4339622641509434</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07526881720430108</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01075268817204301</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04838709677419355</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1290322580645161</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01612903225806452</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1935483870967742</v>
+        <v>0.185929648241206</v>
       </c>
       <c r="R9">
-        <v>0.07526881720430108</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="S9">
-        <v>0.4516129032258064</v>
+        <v>0.4723618090452261</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1029082774049217</v>
+        <v>0.1044568245125348</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02237136465324385</v>
+        <v>0.02367688022284123</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06487695749440715</v>
+        <v>0.06406685236768803</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1193139448173005</v>
+        <v>0.116991643454039</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0238627889634601</v>
+        <v>0.02367688022284123</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2356450410141685</v>
+        <v>0.2325905292479109</v>
       </c>
       <c r="R10">
-        <v>0.08873974645786727</v>
+        <v>0.08844011142061281</v>
       </c>
       <c r="S10">
-        <v>0.3422818791946309</v>
+        <v>0.346100278551532</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.121405750798722</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1086261980830671</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="K11">
-        <v>0.1725239616613418</v>
+        <v>0.173780487804878</v>
       </c>
       <c r="L11">
-        <v>0.5846645367412141</v>
+        <v>0.5823170731707317</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01277955271565495</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7393617021276596</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1808510638297872</v>
+        <v>0.1868686868686869</v>
       </c>
       <c r="K12">
-        <v>0.01063829787234043</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="L12">
-        <v>0.02659574468085106</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0425531914893617</v>
+        <v>0.04040404040404041</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.125</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03137254901960784</v>
+        <v>0.03345724907063197</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09803921568627451</v>
+        <v>0.09665427509293681</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.05576208178438662</v>
       </c>
       <c r="J15">
-        <v>0.392156862745098</v>
+        <v>0.3977695167286245</v>
       </c>
       <c r="K15">
-        <v>0.06274509803921569</v>
+        <v>0.06319702602230483</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00392156862745098</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09803921568627451</v>
+        <v>0.09665427509293681</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2549019607843137</v>
+        <v>0.2527881040892193</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01932367149758454</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2270531400966184</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I16">
-        <v>0.09178743961352658</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="J16">
-        <v>0.3961352657004831</v>
+        <v>0.3981900452488688</v>
       </c>
       <c r="K16">
-        <v>0.07246376811594203</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01449275362318841</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06280193236714976</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1159420289855072</v>
+        <v>0.1131221719457014</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01405622489959839</v>
+        <v>0.01318267419962335</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1807228915662651</v>
+        <v>0.1826741996233522</v>
       </c>
       <c r="I17">
-        <v>0.07028112449799197</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="J17">
-        <v>0.4257028112449799</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="K17">
-        <v>0.108433734939759</v>
+        <v>0.1092278719397363</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01807228915662651</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N17">
-        <v>0.004016064257028112</v>
+        <v>0.003766478342749529</v>
       </c>
       <c r="O17">
-        <v>0.07429718875502007</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1044176706827309</v>
+        <v>0.1035781544256121</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03015075376884422</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1959798994974874</v>
+        <v>0.1933962264150944</v>
       </c>
       <c r="I18">
-        <v>0.09045226130653267</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="J18">
-        <v>0.3718592964824121</v>
+        <v>0.3726415094339622</v>
       </c>
       <c r="K18">
-        <v>0.07537688442211055</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02512562814070352</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="O18">
-        <v>0.05527638190954774</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1557788944723618</v>
+        <v>0.1509433962264151</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01789709172259508</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2132736763609247</v>
+        <v>0.2179930795847751</v>
       </c>
       <c r="I19">
-        <v>0.07531692766592095</v>
+        <v>0.0754325259515571</v>
       </c>
       <c r="J19">
-        <v>0.3549589858314691</v>
+        <v>0.356401384083045</v>
       </c>
       <c r="K19">
-        <v>0.1118568232662192</v>
+        <v>0.1079584775086505</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01789709172259508</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="N19">
-        <v>0.001491424310216256</v>
+        <v>0.001384083044982699</v>
       </c>
       <c r="O19">
-        <v>0.06935123042505593</v>
+        <v>0.06643598615916955</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1379567486950037</v>
+        <v>0.1397923875432526</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Xavier_B.xlsx
+++ b/team_specific_matrix/Xavier_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2046783625730994</v>
+        <v>0.2049861495844875</v>
       </c>
       <c r="C2">
-        <v>0.5467836257309941</v>
+        <v>0.5457063711911357</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01754385964912281</v>
+        <v>0.01662049861495845</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.152046783625731</v>
+        <v>0.1551246537396122</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07894736842105263</v>
+        <v>0.07756232686980609</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02040816326530612</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="C3">
-        <v>0.04591836734693878</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01530612244897959</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7295918367346939</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1887755102040816</v>
+        <v>0.1835748792270532</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08888888888888889</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2444444444444444</v>
+        <v>0.2448979591836735</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07751937984496124</v>
+        <v>0.07326007326007326</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007751937984496124</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1085271317829457</v>
+        <v>0.1062271062271062</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.251937984496124</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02325581395348837</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1279069767441861</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="R6">
-        <v>0.06589147286821706</v>
+        <v>0.06227106227106227</v>
       </c>
       <c r="S6">
-        <v>0.3372093023255814</v>
+        <v>0.336996336996337</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1084905660377359</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01415094339622642</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="E7">
-        <v>0.004716981132075472</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="F7">
-        <v>0.0660377358490566</v>
+        <v>0.05957446808510639</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1273584905660377</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01886792452830189</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2122641509433962</v>
+        <v>0.2212765957446808</v>
       </c>
       <c r="R7">
-        <v>0.04716981132075472</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="S7">
-        <v>0.4009433962264151</v>
+        <v>0.4085106382978723</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1113207547169811</v>
+        <v>0.1101398601398601</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009433962264150943</v>
+        <v>0.01048951048951049</v>
       </c>
       <c r="E8">
-        <v>0.001886792452830189</v>
+        <v>0.003496503496503497</v>
       </c>
       <c r="F8">
-        <v>0.06792452830188679</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1226415094339623</v>
+        <v>0.1223776223776224</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01509433962264151</v>
+        <v>0.01573426573426574</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1547169811320755</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="R8">
-        <v>0.0830188679245283</v>
+        <v>0.07867132867132867</v>
       </c>
       <c r="S8">
-        <v>0.4339622641509434</v>
+        <v>0.4300699300699301</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07035175879396985</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01005025125628141</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04522613065326633</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1256281407035176</v>
+        <v>0.1256038647342995</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01507537688442211</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.185929648241206</v>
+        <v>0.1835748792270532</v>
       </c>
       <c r="R9">
-        <v>0.07537688442211055</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="S9">
-        <v>0.4723618090452261</v>
+        <v>0.463768115942029</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1044568245125348</v>
+        <v>0.1017060367454068</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02367688022284123</v>
+        <v>0.02427821522309711</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06406685236768803</v>
+        <v>0.06496062992125984</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.116991643454039</v>
+        <v>0.1161417322834646</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02367688022284123</v>
+        <v>0.02296587926509186</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2325905292479109</v>
+        <v>0.2296587926509186</v>
       </c>
       <c r="R10">
-        <v>0.08844011142061281</v>
+        <v>0.09317585301837271</v>
       </c>
       <c r="S10">
-        <v>0.346100278551532</v>
+        <v>0.3471128608923885</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1219512195121951</v>
+        <v>0.116991643454039</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1097560975609756</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="K11">
-        <v>0.173780487804878</v>
+        <v>0.1727019498607242</v>
       </c>
       <c r="L11">
-        <v>0.5823170731707317</v>
+        <v>0.5933147632311978</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219512195121951</v>
+        <v>0.01392757660167131</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7373737373737373</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1868686868686869</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="K12">
-        <v>0.0101010101010101</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="L12">
-        <v>0.02525252525252525</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04040404040404041</v>
+        <v>0.04090909090909091</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8048780487804879</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07317073170731707</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1219512195121951</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03345724907063197</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09665427509293681</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="I15">
-        <v>0.05576208178438662</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J15">
-        <v>0.3977695167286245</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="K15">
-        <v>0.06319702602230483</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.003717472118959108</v>
+        <v>0.003508771929824561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09665427509293681</v>
+        <v>0.09824561403508772</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2527881040892193</v>
+        <v>0.2491228070175439</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01809954751131222</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2307692307692308</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="I16">
-        <v>0.09049773755656108</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J16">
-        <v>0.3981900452488688</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="K16">
-        <v>0.06787330316742081</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01357466063348416</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06787330316742081</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1131221719457014</v>
+        <v>0.1144067796610169</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01318267419962335</v>
+        <v>0.01413427561837456</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1826741996233522</v>
+        <v>0.1872791519434629</v>
       </c>
       <c r="I17">
-        <v>0.07344632768361582</v>
+        <v>0.07597173144876325</v>
       </c>
       <c r="J17">
-        <v>0.423728813559322</v>
+        <v>0.4169611307420495</v>
       </c>
       <c r="K17">
-        <v>0.1092278719397363</v>
+        <v>0.107773851590106</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01694915254237288</v>
+        <v>0.0176678445229682</v>
       </c>
       <c r="N17">
-        <v>0.003766478342749529</v>
+        <v>0.00353356890459364</v>
       </c>
       <c r="O17">
-        <v>0.07344632768361582</v>
+        <v>0.07243816254416961</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1035781544256121</v>
+        <v>0.1042402826855124</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02830188679245283</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1933962264150944</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="I18">
-        <v>0.08962264150943396</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="J18">
-        <v>0.3726415094339622</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="K18">
-        <v>0.07075471698113207</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02358490566037736</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N18">
-        <v>0.004716981132075472</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="O18">
-        <v>0.0660377358490566</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1509433962264151</v>
+        <v>0.1565217391304348</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01730103806228374</v>
+        <v>0.01687216093445814</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2179930795847751</v>
+        <v>0.218689162881246</v>
       </c>
       <c r="I19">
-        <v>0.0754325259515571</v>
+        <v>0.07332900713822194</v>
       </c>
       <c r="J19">
-        <v>0.356401384083045</v>
+        <v>0.3549643088903309</v>
       </c>
       <c r="K19">
-        <v>0.1079584775086505</v>
+        <v>0.1109669046073978</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01730103806228374</v>
+        <v>0.01881894873458793</v>
       </c>
       <c r="N19">
-        <v>0.001384083044982699</v>
+        <v>0.001297858533419857</v>
       </c>
       <c r="O19">
-        <v>0.06643598615916955</v>
+        <v>0.06619078520441272</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1397923875432526</v>
+        <v>0.1388708630759247</v>
       </c>
     </row>
   </sheetData>
